--- a/中期检查/需求列表.xlsx
+++ b/中期检查/需求列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
